--- a/Function_names_table.xlsx
+++ b/Function_names_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masudermann/rps10_metabarcoding_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7A2B59C-B2B5-014F-A8BC-F0450016AE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7C31E1-5FE2-1849-AC06-C8B0BAD9CD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34000" yWindow="-1640" windowWidth="27640" windowHeight="16940" xr2:uid="{A6E463D8-E381-6D4A-A218-85E2AD516C06}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
   <si>
     <t>Main Functions</t>
   </si>
@@ -48,9 +48,6 @@
     <t>make_asv_abund_matrix</t>
   </si>
   <si>
-    <t>process_rps10_ITS_barcode</t>
-  </si>
-  <si>
     <t xml:space="preserve">Output: </t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>make_cutadapt_tibble</t>
   </si>
   <si>
-    <t>Tables include file paths needed to run Cutadapt; Primers in different orientations, etc</t>
-  </si>
-  <si>
     <t>run_cutadapt</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>process_rps10_barcode</t>
-  </si>
-  <si>
     <t>infer_asv_command</t>
   </si>
   <si>
@@ -232,6 +223,78 @@
   </si>
   <si>
     <t xml:space="preserve"> formatted_abund_asv</t>
+  </si>
+  <si>
+    <t>process_single_barcode</t>
+  </si>
+  <si>
+    <t>process_pooled_barcode</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>assignTax</t>
+  </si>
+  <si>
+    <t>format_database_rps10</t>
+  </si>
+  <si>
+    <t>format_database_its</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format_database_16s (in progress) </t>
+  </si>
+  <si>
+    <t>process_single_barcode (function called withn assignTax function)</t>
+  </si>
+  <si>
+    <t>process_pooled_barcode (function called withn assignTax function)</t>
+  </si>
+  <si>
+    <t>summary_table</t>
+  </si>
+  <si>
+    <t>Prefiltered, untrimmed, trimmed, and filtered reads in separate directories</t>
+  </si>
+  <si>
+    <t>A table is returned both in global enviornment and in csv format of counts of primers on reads/sample</t>
+  </si>
+  <si>
+    <t>Tables include file paths needed to run Cutadapt; Primers in different orientations</t>
+  </si>
+  <si>
+    <t>A barplot is also made summarizing primer counts</t>
+  </si>
+  <si>
+    <t>Output:</t>
+  </si>
+  <si>
+    <t>First, databases are reformatted so they are all consistent. New renamed databases are saved in the current directory</t>
+  </si>
+  <si>
+    <t>Sub_functions</t>
+  </si>
+  <si>
+    <t>get_fastq_paths; learnErrors (dada2); plotErrors(dada2); dada (dada2)</t>
+  </si>
+  <si>
+    <t>wrapper around dada2's mergePairs command</t>
+  </si>
+  <si>
+    <t>Merged reads</t>
+  </si>
+  <si>
+    <t>wrapper dada2 makeSequenceTable</t>
+  </si>
+  <si>
+    <t>wrapper for dada2 removeBimeraDenovo</t>
+  </si>
+  <si>
+    <t>read_fastq; remove_ns(dada2 wrapper)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functions </t>
   </si>
 </sst>
 </file>
@@ -284,13 +347,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,367 +669,478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D09E7C-208B-6D4A-9757-A28A08714E11}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+    <col min="1" max="1" width="78.83203125" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+    <row r="39" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="C48" s="4"/>
+      <c r="D48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
+      <c r="C49" s="4"/>
+      <c r="D49" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -984,22 +1159,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Function_names_table.xlsx
+++ b/Function_names_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masudermann/rps10_metabarcoding_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7C31E1-5FE2-1849-AC06-C8B0BAD9CD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87584F1-4BBF-5F44-B27B-48A1149BB3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34000" yWindow="-1640" windowWidth="27640" windowHeight="16940" xr2:uid="{A6E463D8-E381-6D4A-A218-85E2AD516C06}"/>
+    <workbookView xWindow="1160" yWindow="1060" windowWidth="27640" windowHeight="16940" xr2:uid="{A6E463D8-E381-6D4A-A218-85E2AD516C06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
   <si>
     <t>Main Functions</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t xml:space="preserve">Functions </t>
+  </si>
+  <si>
+    <t>cut_trim</t>
   </si>
 </sst>
 </file>
@@ -370,6 +373,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1816100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F51B03-12A6-7933-E350-D9BE51436672}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1816100" y="1917700"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -671,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D09E7C-208B-6D4A-9757-A28A08714E11}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -772,7 +835,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
@@ -1144,6 +1207,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Function_names_table.xlsx
+++ b/Function_names_table.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masudermann/rps10_metabarcoding_tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masudermann/rps10_package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87584F1-4BBF-5F44-B27B-48A1149BB3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6075686D-4CE6-E94B-9372-8D3F44EC96D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1060" windowWidth="27640" windowHeight="16940" xr2:uid="{A6E463D8-E381-6D4A-A218-85E2AD516C06}"/>
+    <workbookView xWindow="540" yWindow="920" windowWidth="27640" windowHeight="16940" xr2:uid="{A6E463D8-E381-6D4A-A218-85E2AD516C06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="101">
   <si>
     <t>Main Functions</t>
   </si>
@@ -298,6 +299,48 @@
   </si>
   <si>
     <t>cut_trim</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questions-ITSx-to extract parts of ITS region? </t>
+  </si>
+  <si>
+    <t>test datasets</t>
+  </si>
+  <si>
+    <t>Simplify -just ITS and rps10, but possible also do 16S module</t>
+  </si>
+  <si>
+    <t>A wrapper function to run DADA2 functions that are used for filtering and trimming reads before and after Cutadapt. Reads with Ns are filtered and after reads are demultiplexed and primers are trimmed, reads are further filtered based on user-defined values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrapper function to assign taxonomies to ASVs when reads just contain one barcode. </t>
+  </si>
+  <si>
+    <t>asvmatrix_to_taxmap</t>
+  </si>
+  <si>
+    <t>taxmap_to_phyloseq</t>
+  </si>
+  <si>
+    <t>Wrapper function to do core DADA2 ASV inference steps. Output is a set of unique ASVs and the abundance of each ASV per sample.</t>
+  </si>
+  <si>
+    <t>Organizes user inputs (metadata.csv and primer_info.csv tables) so that proper paths are referenced for read trimming, filtering, and demultiplexing steps.</t>
+  </si>
+  <si>
+    <t>Wrapper function to assign taxonomies to ASVs when reads just contain pooled rps10 and ITS barcodes.</t>
+  </si>
+  <si>
+    <t>Final function to format the ASV abundance matrix as taxmap object, following optional filtering of less abundant ASVs and low confidence taxonomic assignments.</t>
+  </si>
+  <si>
+    <t>Wrapper function to convert taxmap object to phyloseq object that is built on the Metacoder function 'parse_phyloseq'.</t>
   </si>
 </sst>
 </file>
@@ -329,7 +372,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -346,18 +389,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,8 +493,123 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1816100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F2354D6-2210-734E-A3E8-F4C4EE2CA05E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1816100" y="1917700"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4EE8FA-2968-8F42-839F-26FA0404129D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1651000" y="1485900"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -724,7 +897,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -734,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D09E7C-208B-6D4A-9757-A28A08714E11}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1182,25 +1355,22 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="4" t="s">
+      <c r="B47" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="4" t="s">
+      <c r="B48" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="4"/>
       <c r="D48" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="4" t="s">
+      <c r="B49" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="4"/>
       <c r="D49" t="s">
         <v>71</v>
       </c>
@@ -1212,6 +1382,121 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83649A4-9BA0-F947-9BAB-D948D90834FA}">
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="36.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="95.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D43" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523144B9-0E17-F540-B0CE-07F2495621E1}">
   <dimension ref="A1:A4"/>
   <sheetViews>
